--- a/mb/files/test.xlsx
+++ b/mb/files/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\dd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589D5D06-0FB7-49FF-8092-834AEB6A9BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD68772A-0749-4E9D-8544-5F6CB94E9DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="2895" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,6 +377,9 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{04946691-359B-4508-9372-1158305C9103}"/>
